--- a/eioa_data.xlsx
+++ b/eioa_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romaingalgani/Desktop/Python for ABC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4A7682-D8BA-F640-B52D-A11E8DA6CD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74495BEE-54DD-C64A-ADAD-488467AD3F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="265">
   <si>
     <t>eioa_title</t>
   </si>
@@ -246,7 +246,7 @@
     <t>Medium intensity confict: while security has improved thanks to Kenya-Uganda coordination and cross-border dialogues, sporadic violence involving pastoralist groups persists, especially in remote areas. (3, 4, 8, 9, 10)</t>
   </si>
   <si>
-    <t>Underdeveloped Regional Integration Infrastructure: despite recent investments in roads and trade facilitation initiatives under regional economic frameworks like EAC and COMESA, poor rural connectivity, weak enforcement of trade policies, and logistical barriers continue to hinder market access, formal trade, and cross-border economic integration, forcing many traders into the informal sector. (5, 6, 7)</t>
+    <t>Underdeveloped Regional Integration Infrastructure: despite recent investments in roads and trade facilitation initiatives under regional economic frameworks (e.g. EAC, COMESA), poor rural connectivity, weak enforcement of trade policies, and logistical barriers continue to hinder market access, formal trade, and cross-border economic integration, forcing many traders into the informal sector. (5, 6, 7)</t>
   </si>
   <si>
     <t>Type 3: Borderland with fragile context and underdeveloped regional integration infrastructure</t>
@@ -262,22 +262,22 @@
   </si>
   <si>
     <t>Borderland development need: Agriculture is vital to the borderland, where over 80% of the population depends on farming and livestock. Yet, productivity remains low due to erratic rainfall, limited inputs, and poor market access. The region hosts over 5 million livestock, but most is sold raw or transported long distances, missing value-add opportunities. Frequent droughts and post-harvest losses worsen food insecurity, highlighting urgent needs for investment in resilient, market-linked agriculture. (1, 2, 11, 12, 13)
-Borderland policy priority: Boosting food security, livestock productivity, and agro-processing is a shared policy priority in West Pokot’s CIDP and Uganda’s KIDP3. Both strategies emphasize value addition, market access, and climate-smart agriculture to build resilience. These priorities mirror national plans, Kenya’s Agricultural Sector Transformation and Growth Strategy (ASTGS) and Uganda’s National Agriculture Policy (NAP), both of which aim to modernize agriculture and transform smallholder livelihoods. (1, 2, 14, 15)
+Borderland policy priority: Boosting food security, livestock productivity, and agro-processing is a shared policy priority in West Pokot’s County Integrated Development Plan (CIDP) and Karamoja's Integrated Development Plan 3 (KIDP3). Both strategies emphasize value addition, market access, and climate-smart agriculture to build resilience. These priorities mirror national plans, Kenya’s Agricultural Sector Transformation and Growth Strategy (ASTGS) and Uganda’s National Agriculture Policy (NAP), both of which aim to modernize agriculture and transform smallholder livelihoods. (1, 2, 14, 15)
 Gender inequalities and marginalization issues: Agriculture offers inclusive economic opportunities for women and marginalized groups who are heavily engaged in farming, livestock care, and informal trade across the borderland. Expanding access to inputs, training, and markets—especially in value chains like dairy, honey, and poultry—can boost incomes, enhance resilience, and promote gender equity in a region with limited formal employment. (6, 16, 17)
 Investment opportunities introduction: The agriculture sector offers significant investment potential in irrigation infrastructure, agro-processing, livestock value chains, and climate-smart farming. Expanding storage facilities, strengthening veterinary services, and establishing market linkages can drive economic transformation and improve livelihoods in the borderland. (1, 2, 18)
 Key bottlenecks introduction: Agricultural expansion is constrained by poor infrastructure, weak market access, climate shocks, and low adoption of improved practices. Inadequate processing facilities, limited access to finance, and inconsistent cross-border policies further restrict sectoral growth, requiring targeted interventions to unlock its full potential. (12, 18, 19)</t>
   </si>
   <si>
-    <t>Borderland development need: Access to reliable energy remains critically low across the borderland. In Karamoja, grid electricity reaches only about 1% of households, while in West Pokot, access remains limited and often dependent on costly diesel generators. Power outages in urban centers like Moroto further disrupt businesses, schools, and healthcare facilities. This chronic energy deficit constrains industrial growth, weakens service delivery, and limits livelihood diversification across the region. (11, 12, 13)
-Borderland policy priority: The CIDP for West Pokot and the KIDP3 for Karamoja both prioritize expanding renewable energy access to support socio-economic development. West Pokot plans to establish a County Energy Centre, develop energy regulations, and promote clean cooking. Karamoja emphasizes solar grid integration, rural electrification, and access to energy for institutions. Both regions aim to reduce biomass reliance, improve service delivery, and promote sustainable energy use. (1, 2)
-Gender inequalities and marginalization issues: Agriculture offers inclusive economic opportunities for women and marginalized groups who are heavily engaged in farming, livestock care, and informal trade across the borderland. Expanding access to inputs, training, and markets—especially in value chains like dairy, honey, and poultry—can boost incomes, enhance resilience, and promote gender equity in a region with limited formal employment. (6, 16, 17)
-Investment opportunities introduction: The agriculture sector offers significant investment potential in irrigation infrastructure, agro-processing, livestock value chains, and climate-smart farming. Expanding storage facilities, strengthening veterinary services, and establishing market linkages can drive economic transformation and improve livelihoods in the borderland. (1, 2, 18)
-Key bottlenecks introduction: Agricultural expansion is constrained by poor infrastructure, weak market access, climate shocks, and low adoption of improved practices. Inadequate processing facilities, limited access to finance, and inconsistent cross-border policies further restrict sectoral growth, requiring targeted interventions to unlock its full potential. (12, 18, 19)</t>
-  </si>
-  <si>
-    <t>Borderland development need: Limited access to financial services is a core constraint to inclusive growth in the borderland. National data show that only 58% of Ugandans and 83% of Kenyans have access to formal financial services, but rates are much lower in marginalized regions. Many small traders, farmers, and youth operate entirely outside the banking system, relying on home savings or informal lenders. This lack of access to credit, insurance, and savings prevents investment in business expansion, reduces resilience to shocks, and reinforces poverty cycles. Improving financial inclusion is foundational to unlocking the borderland’s economic potential. (11, 12, 13, 14)
-Borderland policy priority: Expanding financial access is a shared policy priority in both Karamoja and West Pokot. Uganda’s KIDP3 emphasizes financial literacy, strengthening SACCOs and VSLAs, and connecting farmers to formal financial services. Kenya’s CIDP promotes affordable credit through cooperative development and funds like Biashara Mashinani. Both strategies aim to boost entrepreneurship, agricultural investment, and resilience, with a strong focus on cooperatives as vehicles for local empowerment. These policy signals provide strong alignment and public support for investment in financial sector development. (1, 2)
-Gender inequalities and marginalization issues: Women and youth are disproportionately excluded from formal finance due to lack of collateral, literacy barriers, and mobility constraints. Many save at home or rely on VSLAs, highlighting unmet demand for tailored, accessible financial products to address structural exclusion. (16, 17)
+    <t>Borderland development need: Access to reliable energy remains critically low across the borderland. In Karamoja, grid electricity reaches only about 1% of households, while in West Pokot, access remains limited and often dependent on costly diesel generators. Power outages in urban centers like Moroto and Amudat further disrupt businesses, schools, and healthcare facilities. This chronic energy deficit constrains industrial growth, weakens service delivery, and limits livelihood diversification across the region. (11, 12, 13)
+Borderland policy priority: The County Integrated Development Plan (CIDP) for West Pokot and the Karamoja Integrated Development Plan (KIDP3)  both prioritize expanding renewable energy access to support socio-economic development. West Pokot plans to establish a County Energy Centre, develop energy regulations, and promote clean cooking, while Karamoja's plan emphasizes solar grid integration, rural electrification, and access to energy for institutions. Nationally, the government of Uganda had planned to increase access to energy from 21% to 60% by 2025, while Kenya’s National Electrification Strategy aims at creating around 2 million new connections using Solar House Systems and mini-grid solutions. (1, 2, 45, 46)
+Gender inequalities and marginalization issues: Women and youth in the borderland lack access to clean energy due to poverty, limited land ownership, and exclusion from decision-making. Women, in particular, bear the health burden of indoor air pollution from firewood and charcoal. (11, 12, 17)
+Investment opportunities introduction: The borderland faces low rural electrification and rising demand in both Kenya and Uganda. Kenya aims for 2M new off-grid connections, requiring USD 2.8B in investment, while Uganda targets 60% access by 2025. With demand growing 10–13% annually and over 20M people still off-grid, decentralized renewable solutions (such as SHS and mini-grids) offer scalable, high-impact investment opportunities. (45, 46, 47)
+High initial costs, limited distribution infrastructure, and poor financing mechanisms restrict adoption of renewable energy. Knowledge gaps in system maintenance and weak coordination between stakeholders further impede scale. Energy policies remain fragmented and poorly implemented at local levels. (11, 12)</t>
+  </si>
+  <si>
+    <t>Borderland development need: National data show that only 58% of Ugandans and 83% of Kenyans have access to formal financial services, but rates are much lower in marginalized regions. In West Pokot, only 5.4% of farmers have access to formal finance for agriculture, as many small traders, farmers, and youth operate entirely outside the banking system, relying on home savings or informal lenders. This lack of access to credit, insurance, and savings prevents investment in business expansion, reduces resilience to shocks, and reinforces poverty cycles. Improving financial inclusion is foundational to unlocking the borderland’s economic potential. (7, 9, 12, 13)
+Borderland policy priority: Expanding financial access is a shared policy priority across the border: the Karamoja Integrated Development Plan (KIDP3) supports scaling up financial literacy, strengthening SACCOs and VSLAs, and connecting farmers to formal financial services, while the West Pokot County Integrated Development Plan (CIDP) promotes affordable credit through cooperative development. Both strategies aim to boost entrepreneurship, agricultural investment, and resilience, with a strong focus on cooperatives as vehicles for local empowerment. (1, 2)
+Gender inequalities and marginalization issues: In 2022, 52% of women had access to formal finance, and 35.5% could only access informal finance. Across the borderland, women, youth, and other marginalized groups face systemic barriers to accessing financial services. These include lack of formal identification, limited financial literacy, and social norms that restrict mobility and decision-making power. As a result, many are excluded from formal financial systems and depend instead on informal mechanisms such as village savings and loan associations (VSLAs) or saving at home. (13, 16, 17)
 Investment opportunities introduction: Emerging opportunities include digital financial services, mobile money expansion, SACCO scaling, and tailored SME financial products. Growing demand for agriculture and clean energy finance presents entry points for impact-driven investors and fintech innovators. (12, 14, 15)
 Key bottlenecks introduction: High collateral demands, limited rural outreach, lack of tailored products, and weak financial literacy constrain both demand and supply. Formal lenders struggle with risk perceptions, while cooperatives lack capitalization and systems to scale their services sustainably. (11, 12, 14, 15)</t>
   </si>
@@ -291,31 +291,32 @@
     <t>FN.3 Insurance</t>
   </si>
   <si>
-    <t>Borderland development need: Crop production, including staple and high-value horticultural crops, is a crucial component of the borderland economy, yet 45% of households in Karamoja face high levels of acute food insecurity. Poor irrigation,climate vulnerability, weak input supply chains, and limited agro-processing capacity lead to low yields and 30-40% post-harvest losses. (19, 20, 21)
+    <t>Borderland development need: Crop production, including staple and high-value horticultural crops, is a crucial component of the borderland economy with 45,000 tons produced in West Pokot only in 2023.  Yet 45% of households in the borderland face high levels of acute food insecurity. Poor irrigation,climate vulnerability, weak input supply chains, and limited agro-processing capacity lead to low yields and 30-40% post-harvest losses. (19, 20, 21, 50)
 Borderland policy priority: The KIDP3 and CIDP prioritize food security by promoting climate-smart agriculture, irrigation expansion, and agro-processing. Investments in post-harvest management, contract farming, and value addition aim to strengthen supply chains and reduce losses, enhancing local food production and processing capacity. (1, 2)
-Gender inequalities and marginalization issues: Women in food production and processing face barriers in accessing land, finance, and markets. Strengthening cooperatives, providing targeted credit, and promoting women-led agribusiness initiatives can bridge these gaps. Ensuring their participation in training and value chain development will enhance productivity and household food security. (6, 17)
+Gender inequalities and marginalization issues: Women constitute almost 80% of agricultural workers in the region, yet they face barriers in accessing land, finance, and markets. Strengthening cooperatives, providing targeted credit, and promoting women-led agribusiness initiatives can bridge these gaps. Ensuring their participation in training and value chain development will enhance productivity and household food security. (6, 17, 51)
 Investment opportunities introduction: Expanding food production and processing offers high potential for investment in irrigation, agro-processing plants, and cold storage facilities. Supporting contract farming, market linkages, and climate-smart inputs will reduce post-harvest losses, increase local value addition, and create new economic opportunities in the borderland. (17, 18, 19)
 Key bottlenecks introduction: Limited irrigation, weak input supply chains, and poor storage infrastructure hinder food production, while inadequate processing facilities result in high post-harvest losses. Weak market access and fragmented trade networks further limit value addition, making targeted investments in supply chains and agro-industrialization crucial for sectoral growth. (1, 2, 20, 22)</t>
   </si>
   <si>
     <t>Borderland development need: Frequent outages and limited grid access hinder productive energy use across the borderland. In West Pokot, cooperatives report up to six power cuts weekly, pushing reliance on costly diesel generators—up to 300 USD/month. These disruptions restrict milk processing, cold storage, and irrigation. Despite high solar potential and availability of livestock for biogas, uptake is low due to high costs, weak infrastructure, and limited awareness. Most households rely on firewood and charcoal for cooking and lighting, driving deforestation and respiratory health risks. (11, 12, 13)
 Borderland policy priority: Karamoja’s KIDP3 promotes solar stations, mini solar water systems, and repairs to existing solar installations. It also supports biogas for cooking and lighting. West Pokot’s CIDP highlights solar tech innovation, clean jiko distribution, and technology transfer for sustainable off-grid energy. Both plans support awareness campaigns and training to accelerate adoption of solar and biogas solutions across public and private use cases. (1, 2)
-Gender inequalities and marginalization issues: Women in food production and processing face barriers in accessing land, finance, and markets. Strengthening cooperatives, providing targeted credit, and promoting women-led agribusiness initiatives can bridge these gaps. Ensuring their participation in training and value chain development will enhance productivity and household food security. (6, 17)
-Investment opportunities introduction: Expanding food production and processing offers high potential for investment in irrigation, agro-processing plants, and cold storage facilities. Supporting contract farming, market linkages, and climate-smart inputs will reduce post-harvest losses, increase local value addition, and create new economic opportunities in the borderland. (17, 18, 19)
-Key bottlenecks introduction: Limited irrigation, weak input supply chains, and poor storage infrastructure hinder food production, while inadequate processing facilities result in high post-harvest losses. Weak market access and fragmented trade networks further limit value addition, making targeted investments in supply chains and agro-industrialization crucial for sectoral growth. (1, 2, 20, 22)</t>
+Gender inequalities and marginalization issues: Women-led enterprises and agro-pastoral households struggle to adopt solar and biogas systems due to high upfront costs and limited financial tools tailored to their needs. Women's role in managing household energy is high, yet they remain underrepresented in energy project planning and technical training. Expanding access requires inclusive design and gender-sensitive financing mechanisms. (11, 12, 17)
+Investment opportunities introduction: High solar irradiation creates favorable conditions for off-grid solar powering cold storage, irrigation, and dairy processing. Biogas has strong potential in agro-pastoral areas where animal waste is readily available. Investment in productive energy use can unlock SME growth, improve food preservation, and reduce fuelwood dependency. (11, 12)
+Adoption of solar for productive use and biogas is limited by lack of affordable credit, insufficient technical capacity, and low awareness among end users. Most SMEs lack working capital for energy investments, and few service providers operate in remote borderland areas. Maintenance and after-sales services are also limited. (11, 12)</t>
   </si>
   <si>
     <t>Borderland development need: Livestock is the main source of livelihood in the borderland, with over 5 million head of cattle, goats, sheep, and camels. However, drought, disease, and poor veterinary services lead to high mortality and low productivity. Most animals are sold live, with minimal local processing, limiting income and adding costs. Insecurity and weak infrastructure further disrupt markets. With 45% of the population facing acute food insecurity, improving livestock systems is critical to resilience and economic growth. (11, 20, 21, 22)
-Borderland policy priority: Both CIDP and KIDP3 prioritize livestock as a driver of resilience, food security, and economic growth. West Pokot County focuses on breed improvement, feed reserves, and operationalizing processing facilities such as the Nasukuta abattoir to retain value locally. Karamoja's plan prioritises breeding, disease surveillance, and value addition in meat, milk, and hides. Both plans aim to improve market access, veterinary services, and cross-border trade, especially for youth and women in pastoral systems. (1, 2)
+Borderland policy priority: Both CIDP and KIDP3 highlight livestock as a driver of resilience, food security, and economic growth. In West Pokot, the County plan focuses on breed improvement, feed reserves, and operationalizing processing facilities such as the Nasukuta abattoir to retain value locally. In Karamoja, the local government prioritises breeding, disease surveillance, and value addition in meat, milk, and hides. Both aim to improve market access, veterinary services, and cross-border trade, especially for youth and women in pastoral systems. (1, 2)
 Gender inequalities and marginalization issues: Livestock production and processing offer key entry points for empowering women and marginalized groups, who often manage small ruminants and poultry. These activities generate income, support food security, and are more accessible to those with limited land or capital. Expanding value chains and services tailored to women and youth can drive inclusion and build resilience. (12, 13)
 Investment opportunities introduction: The borderland offers high-return investment opportunities in livestock production and processing, from meat and dairy value chains to animal health and feed systems. With strong local demand, large herd sizes, and policy backing, investments in abattoirs, milk processing, vet services, and feed supply can unlock value, boost incomes, and strengthen regional trade. (1, 2)
-Key bottlenecks introduction: Recurrent droughts and disease outbreaks weaken productivity, while limited access to quality feed and vet services constrains herd health. Insecurity—driven by cattle raiding, border tensions, and weak enforcement—disrupts markets and discourages investment. Poor infrastructure and low processing capacity further limit value addition. (1, 2, 9, 12)</t>
-  </si>
-  <si>
-    <t>Borderland development need: Smallholder farmers and pastoralists across the borderland face recurrent climate and market shocks—drought, animal disease, and fluctuating prices—yet have no access to risk mitigation tools like insurance. Over 80% of households in Karamoja rely on agriculture or livestock for livelihoods, but very few are insured. These communities depend on informal coping mechanisms like distress sales or food aid, which deepen vulnerability. Micro-insurance tailored to mobile pastoralism and smallholder farming could increase resilience, reduce aid dependency, and unlock productive investment. (7, 9, 12, 18)
-Borderland policy priority: The Karamoja Integrated Development Plan III (KIDP3) identifies insurance as a priority under efforts to improve financial inclusion and agricultural resilience. It calls for tailored livestock and crop insurance products, support to VSLAs, and stronger linkages between smallholder farmers and financial institutions. Likewise, West Pokot’s CIDP highlights structured support for cooperatives and small businesses through financing tools like the Biashara Mashinani Fund and capacity-building initiatives. While insurance is not always explicitly mentioned, both frameworks emphasize financial access, enterprise support, and resilience-building—creating a policy entry point for micro-insurance solutions targeting vulnerable producers. (1, 2)
-Gender inequalities and marginalization issues: Women and youth, who are often excluded from land ownership and financial services, are particularly vulnerable to shocks but underrepresented in insurance uptake. Without gender-sensitive micro-insurance solutions, their resilience remains low and their exclusion deepens. (16, 17)
-Investment opportunities introduction: There is a strong case for blended finance to support micro-insurance pilots for livestock and crops. Viable entry points include index-based livestock insurance, bundled services (e.g., feed + cover), and partnerships with SACCOs or mobile money providers. Demand exists if products are localized and trusted. (14, 15, 20)
+Key bottlenecks introduction: Recurrent droughts and disease outbreaks weaken productivity, while limited access to quality feed and vet services constrains herd health. Insecurity (driven by cattle raiding, border tensions, and weak enforcement) disrupts markets and discourages investment. Poor infrastructure and low processing capacity further limit value addition. (1, 2, 9, 12)</t>
+  </si>
+  <si>
+    <t>Borderland development need: Smallholder farmers and pastoralists across the borderland face recurrent climate and market shocks, yet have no access to risk mitigation tools. Over 80% of households in Karamoja rely on agriculture or livestock for livelihoods, but less than 1% are insured. These communities depend on informal coping mechanisms such as distress sales or food aid, which deepen vulnerability. Micro-insurance tailored to mobile pastoralism and smallholder farming could increase resilience, reduce aid dependency, and unlock productive investment. (7, 9, 18, 53)
+Borderland policy priority: The KIDP3 identifies insurance as an indirect priority under efforts to improve financial inclusion and agricultural resilience. It calls for tailored livestock and crop insurance products, support to VSLAs, and stronger linkages between smallholder farmers and financial institutions. Likewise, West Pokot’s CIDP highlights structured support for cooperatives and small businesses through financing tools (e.g. the Biashara Mashinani Fund) and capacity-building initiatives. (1, 2)
+Insurance is however not always explicitly mentioned, emphasizing the need to create a stronger policy entry point for micro-insurance solutions. 
+Gender inequalities and marginalization issues: Women and youth, who are often excluded from land ownership and financial services, are particularly vulnerable to shocks but underrepresented in insurance uptake. In 2018 in Kenya, less than 0.5% of women had access to crop or livestock insurance. Without gender-sensitive micro-insurance solutions, their resilience remains low and their exclusion deepens. (16, 17, 53)
+Investment opportunities introduction: There is a strong case for blended finance to support micro-insurance pilots for livestock and crops. Despite low insurance uptake, 43% of households regularly keep money aside for emergencies. Viable entry points include index-based livestock insurance, bundled services (e.g., feed + cover), and partnerships with SACCOs or mobile money providers. Demand exists if products are localized and trusted. (13, 14, 15, 20)
 Key bottlenecks introduction: The main barriers include low awareness, distrust of insurance, lack of tailored products for mobile pastoralists, and the absence of local delivery infrastructure. Policy support is fragmented, and actuarial data for the region is limited, deterring private insurers. (12, 14, 15)</t>
   </si>
   <si>
@@ -484,13 +485,13 @@
 Proven in-market: Pilots by Pula, ILRI, and ACRE show technical feasibility, though uptake remains low without trust-building, subsidies, and tailored outreach. (31, 33, 35)</t>
   </si>
   <si>
-    <t>Rural Livelihoods &amp; Women’s Inclusion: Aloe harvesting offers income for rural women but remains low-paying and informal. Organized production and processing can increase earnings and empower women economically. (18, 29)
-Environmental Sustainability: Unregulated harvesting depletes wild aloe stocks, harming biodiversity. Sustainable cultivation ensures long-term supply while preventing overexploitation. (18, 29)
-Market Access &amp; Value Addition: Aloe is mostly sold raw at low prices due to lack of processing and market structures. Developing processing hubs and branding can increase profits and expand market reach. (18, 29)</t>
-  </si>
-  <si>
-    <t>Clean Cooking Access: Most market vendors rely on charcoal or firewood, causing high fuel costs, indoor air pollution, and deforestation; clean cooking alternatives remain limited and unaffordable. (22, 24)
-Organic Waste Management: Cross-border markets generate large volumes of unmanaged livestock and food waste, leading to environmental health risks and missed energy recovery potential. (28)</t>
+    <t>Aloe harvesting offers income for rural women but remains low-paying and informal. Organized production and processing can increase earnings and empower women economically. (18, 29)
+Unregulated harvesting depletes wild aloe stocks, harming biodiversity. Sustainable cultivation ensures long-term supply while preventing overexploitation. (18, 29)
+Aloe is mostly sold raw at low prices due to lack of processing and market structures. Developing processing hubs and branding can increase profits and expand market reach. (18, 29)</t>
+  </si>
+  <si>
+    <t>Most market vendors rely on charcoal or firewood, causing high fuel costs, indoor air pollution, and deforestation; clean cooking alternatives remain limited and unaffordable. (22, 24)
+Cross-border markets generate large volumes of unmanaged livestock and food waste, leading to environmental health risks and missed energy recovery potential. (28)</t>
   </si>
   <si>
     <t>Most hides and skins are discarded or sold at low prices due to poor preservation, missing a major income opportunity for livestock-dependent communities. (25, 33)
@@ -499,22 +500,22 @@
   </si>
   <si>
     <t>Frequent climate shocks (droughts, crop failure, livestock loss) threaten livelihoods for 200,000+ households in Karamoja and West Pokot, with most relying on negative coping strategies. (7, 12, 14)
-Formal insurance coverage remains extremely low—under 7% of the population in Kenya and lower in Uganda—leaving smallholders and pastoralists highly vulnerable. (34)
+Formal insurance coverage remains extremely low (under 7% of the population in Kenya and lower in Uganda) leaving smallholders and pastoralists highly vulnerable. (34)
 Public and donor relief systems are generally slow; proactive risk transfer tools like microinsurance are largely unavailable in the borderland. (26, 27, 28)</t>
   </si>
   <si>
-    <t>Women’s Economic Exclusion: Women dominate aloe harvesting but earn low wages and lack access to processing, finance, and markets. Formalizing the value chain and training women in value addition can boost earnings and agency. (18, 29)
-Geographic Marginalisation: West Pokot and Karamoja are remote with weak infrastructure, isolating small producers from high-value urban markets. Strengthening supply chains can improve market access. (18, 31)
-Youth &amp; Smallholder Participation: Aloe harvesting is informal, with few opportunities for youth and smallholders to engage in processing or trade. Training and cooperative models can increase youth employment and economic resilience. (23, 27, 31)</t>
-  </si>
-  <si>
-    <t>Energy Burden on Women: Women vendors rely on firewood and charcoal for cooking, exposing them to smoke, long hours, and health risks; clean, affordable alternatives are rarely accessible. (27)
-Limited Ownership and Access: Women in informal markets have limited access to energy assets or financing; few own clean cooking equipment or participate in energy cooperatives. (27)</t>
+    <t>Women dominate aloe harvesting but earn low wages and lack access to processing, finance, and markets. Formalizing the value chain and training women in value addition can boost earnings and agency. (18, 29)
+West Pokot and Karamoja are remote with weak infrastructure, isolating small producers from high-value urban markets. Strengthening supply chains can improve market access. (18, 31)
+Aloe harvesting is informal, with few opportunities for youth and smallholders to engage in processing or trade. Training and cooperative models can increase youth employment and economic resilience. (23, 27, 31)</t>
+  </si>
+  <si>
+    <t>Women vendors rely on firewood and charcoal for cooking, exposing them to smoke, long hours, and health risks; clean, affordable alternatives are rarely accessible. (27)
+Women in informal markets have limited access to energy assets or financing; few own clean cooking equipment or participate in energy cooperatives. (27)</t>
   </si>
   <si>
     <t>Women and youth are largely excluded from formal livestock markets but often engage informally in slaughterhouse cleaning or hide collection, with limited earnings or recognition. (33)
 Handling and preservation tasks offer an entry point for women’s participation, yet lack of training and tools constrains value capture. (33)
-The value chain is dominated by middlemen, leaving small-scale actors—especially women—without bargaining power or stable buyers. (33)</t>
+The value chain is dominated by middlemen, leaving small-scale actors (especially women) without bargaining power or stable buyers. (33)</t>
   </si>
   <si>
     <t>Women and youth face structural exclusion from formal insurance due to limited financial literacy, mobility, and asset ownership, making them less likely to access risk protection tools. (24)
@@ -547,9 +548,9 @@
 Training in aloe farming, processing, and product development creates new income streams for youth. Supporting cooperatives and financing lowers barriers to entry, enabling smallholders to scale up production and move away from precarious informal trade. (23, 27, 31)</t>
   </si>
   <si>
-    <t>Empowers Women Vendors: Provides women with access to clean, affordable cooking energy, reducing time, health, and financial burdens tied to traditional fuels. (27)
-Inclusive Economic Participation: Involves women and marginalized groups in cooperative ownership and management of energy infrastructure, increasing their agency and income. (27)
-Improved Workplace Safety: Reduces exposure to indoor air pollution and unsafe cooking environments in informal markets, benefiting vulnerable women and youth vendors. (27)</t>
+    <t>Provides women with access to clean, affordable cooking energy, reducing time, health, and financial burdens tied to traditional fuels. (27)
+Involves women and marginalized groups in cooperative ownership and management of energy infrastructure, increasing their agency and income. (27)
+Reduces exposure to indoor air pollution and unsafe cooking environments in informal markets, benefiting vulnerable women and youth vendors. (27)</t>
   </si>
   <si>
     <t>Engages women and youth in aggregation, sorting, and drying, providing low-barrier entry jobs in an accessible value chain. (33)
@@ -604,29 +605,18 @@
 13.1.1 Number of deaths, missing persons and directly affected persons attributed to disasters per 100,000 population</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2023, Kenya's informal sector employed approximately 16.7 million individuals, accounting for about 83.5% of the total employment.
+    <t>In 2023, Kenya's informal sector employed approximately 16.7 million individuals, accounting for about 83.5% of the total employment.
 The informal sector in Uganda employs about 13.3 million people out of the 15.8 million working population, representing approximately 85% of total employment.
-(34, 35)
-No data publicly available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No data publicly available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2020, the poverty rate was 66% in Karamoja and 57% in West Pokot. (1, 2)
+(34, 35)</t>
+  </si>
+  <si>
+    <t>In 2020, the poverty rate was 66% in Karamoja and 57% in West Pokot. (1, 2)
 In 2023, Kenya's informal sector employed approximately 16.7 million individuals, accounting for about 83.5% of the total employment.
 The informal sector in Uganda employs about 13.3 million people out of the 15.8 million working population, representing approximately 85% of total employment.
-(34, 35)
-No data publicly available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya and Uganda have not specified explicit targets to reduce the proportion of informal employment within their labor forces.
-No data publicly available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The government of Uganda aims to reduce the incidence of poverty in Karamoja to 42.2% over the next five-year period. (1)
-Kenya and Uganda have not specified explicit targets to reduce the proportion of informal employment within their labor forces.
-No data publicly available. </t>
+(34, 35)</t>
+  </si>
+  <si>
+    <t>The government of Uganda aims to reduce the incidence of poverty in Karamoja to 42.2% over the next five-year period. (1)</t>
   </si>
   <si>
     <t>2 - Zero Hunger
@@ -1036,84 +1026,75 @@
 Develop blended finance facilities with risk-sharing mechanisms (e.g. partial guarantees or reinsurance support) to attract private insurers and fintechs into underserved, high-risk borderland markets.</t>
   </si>
   <si>
-    <t xml:space="preserve">Long-standing tensions among pastoralist groups, such as the Pokot, Turkana, and Karamojong, have led to cycles of retaliatory attacks. These conflicts often stem from competition over resources like water and grazing land, creating an unstable environment for business operations. (4, 43, 44)
+    <t>Long-standing tensions among pastoralist groups, such as the Pokot, Turkana, and Karamojong, have led to cycles of retaliatory attacks. These conflicts often stem from competition over resources like water and grazing land, creating an unstable environment for business operations. (4, 43, 44)
 Banditry and armed robberies are prevalent in the area, affecting the safety of transportation routes essential for business logistics. Such insecurity can lead to increased costs and deter investment. (4, 43, 44)
-The porous borders between Kenya and Uganda facilitate the movement of armed groups, leading to cross-border raids and conflicts. These tensions can disrupt trade and supply chains, impacting the scalability of cross-border business models. (4, 43, 44)
-(Risk): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sporadic cross-border cattle raids (e.g., Karita, Kobebe, Kacheliba): These can disrupt vendor activity and deter infrastructure investments in markets, especially in early-stage deployments of biogas units. (41, 42, 44)
-Tensions between pastoralist communities over waste access or land use: Conflicts may arise if organic wast. (41, 42, 44)
-Weak law enforcement and informal policing in remote markets: In areas like Amudat or southern West Pokot, limited formal security may expose shared biogas units to vandalism or theft, raising maintenance and insurance costs.
-Historical mistrust between communities and local authorities: Delays in securing permissions or resolving disputes around market siting and ownership models could stall implementation or reduce uptake by marginalized groups. (43)
-(Risk): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross-border livestock raids: Persistent livestock theft in West Pokot and Karamoja disrupts slaughter volumes, reducing availability of hides and skins. This affects supply reliability for processors and discourages private sector engagement. (47, 48, 50)
-Banditry along trade routes: Armed ambushes on roads such as Amudat–West Pokot corridor threaten transport of hides, increasing costs and limiting regional trade flows. Insecure logistics deter investment in aggregation and cross-border commerce. (47, 48, 50)
-Localized conflict near markets: Tensions between pastoralist groups near livestock markets (e.g., Moroto, Turkana border) can shut down trading days, reducing hide collection and impacting incomes for traders and processors. (47, 48, 50)
-Weak security infrastructure: Limited police presence and poor enforcement near abattoirs and aggregation points lead to theft of skins and equipment. This undermines confidence in long-term capital investments. (47, 48, 50)
-(Risk): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cattle raiding and inter-communal violence: Persistent livestock theft and retaliatory attacks in Karamoja and West Pokot undermine trust in collective schemes, deter investment, and reduce the viability of insuring mobile herds. (49, 50)
-Cross-border insecurity: Armed incursions and porous borders allow conflict to spread across communities, disrupting market access and movement needed for insurance registration, outreach, and verification. (49, 50, 52)
-Youth militarization and recruitment: The involvement of youth in armed activity—due to lack of livelihoods—creates volatility that can deter community-based insurance distribution and outreach activities. (49, 50)
-(Risk): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional and government authorities both claim control over land use, leading to disputes. Unclear land tenure for aloe vera cultivation limits investor confidence and long-term planning. (45)
+The porous borders between Kenya and Uganda facilitate the movement of armed groups, leading to cross-border raids and conflicts. These tensions can disrupt trade and supply chains, impacting the scalability of cross-border business models. (4, 43, 44)</t>
+  </si>
+  <si>
+    <t>Sporadic cross-border cattle raids can disrupt vendor activity and deter infrastructure investments in markets, especially in early-stage deployments of biogas units. (41, 42, 44)
+Tensions between pastoralist communities over waste access or land use may arise. (41, 42, 44)
+Limited formal security may expose shared biogas units to vandalism or theft, raising maintenance and insurance costs. (43)
+Delays in securing permissions or resolving disputes around market siting and ownership models could stall implementation or reduce uptake by marginalized groups. (43)</t>
+  </si>
+  <si>
+    <t>Persistent livestock theft in West Pokot and Karamoja disrupts slaughter volumes, reducing availability of hides and skins. This affects supply reliability for processors and discourages private sector engagement. (47, 48, 50)
+Armed ambushes on key trade corridors threaten transport of hides, increasing costs and limiting regional trade flows. Insecure logistics deter investment in aggregation and cross-border commerce. (47, 48, 50)
+Tensions between pastoralist groups near livestock markets can shut down trading days, reducing hide collection and impacting incomes for traders and processors. (47, 48, 50)
+Limited police presence and poor enforcement near abattoirs and aggregation points lead to theft of skins and equipment. This undermines confidence in long-term capital investments. (47, 48, 50)</t>
+  </si>
+  <si>
+    <t>Persistent livestock theft and retaliatory attacks in Karamoja and West Pokot undermine trust in collective schemes, deter investment, and reduce the viability of insuring mobile herds. (49, 50)
+Armed incursions and porous borders allow conflict to spread across communities, disrupting market access and movement needed for insurance registration, outreach, and verification. (49, 50, 52)
+The involvement of youth in armed activity creates volatility that can deter community-based insurance distribution and outreach activities. (49, 50)</t>
+  </si>
+  <si>
+    <t>Traditional and government authorities both claim control over land use, leading to disputes. Unclear land tenure for aloe vera cultivation limits investor confidence and long-term planning. (45)
 Women, who are primary aloe harvesters, face barriers in accessing financial resources and market opportunities. Traditional norms limit their role in decision-making and control over income. (6, 29)
 Unresolved inter-community conflicts disrupt market access and trade. Without stronger mediation efforts, insecurity will continue to hinder supply chain efficiency and scalability. (6, 45)
-Development funds for agro-processing risk being controlled by politically connected actors, sidelining small-scale producers. This inequality limits broad-based benefits from the sector. (45)
-(Risk): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contestation over organic waste and feedstock control: As biogas production gives new value to market waste, competition may arise among vendor groups, local elites, or informal waste collectors, risking exclusion or conflict. (7, 8)
-Fragmented authority and weak cross-border coordination: Overlapping mandates between local governments, market committees, and informal actors can create confusion or conflict over ownership, fees, and responsibilities. (12, 13, 44)
-(Risk): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of local governance coordination: Weak inter-district and cross-border coordination hampers the formalization of hides and skins trade, leading to fragmented policies and low enforcement of quality standards. (33)
-Marginalization of women in trade: Despite their involvement in processing and handling, women have limited decision-making power and face cultural barriers to accessing capital and market networks, reducing their potential benefits. (6, 50)
+Development funds for agro-processing risk being controlled by politically connected actors, sidelining small-scale producers. This inequality limits broad-based benefits from the sector. (45)</t>
+  </si>
+  <si>
+    <t>As biogas production gives new value to market waste, competition may arise among vendor groups, local elites, or informal waste collectors, risking exclusion or conflict. (7, 8)
+Overlapping mandates between local governments, market committees, and informal actors can create confusion or conflict over ownership, fees, and responsibilities. (12, 13, 44)</t>
+  </si>
+  <si>
+    <t>Weak inter-district and cross-border coordination hampers the formalization of hides and skins trade, leading to fragmented policies and low enforcement of quality standards. (33)
+Despite their involvement in processing and handling, women have limited decision-making power and face cultural barriers to accessing capital and market networks, reducing their potential benefits. (6, 50)
 Unresolved inter-community conflicts disrupt market access and trade. Without stronger mediation efforts, insecurity will continue to hinder supply chain efficiency and scalability. (6, 45)
-Conflicting land use claims: Contestation over land near livestock markets or potential processing sites may delay infrastructure development or provoke community resistance to investment initiatives. (49)
-(Risk): </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local political and economic elites may dominate cooperative structures or SACCOs, skewing access to insurance products and limiting equitable uptake across communities. (51)
+Contestation over land near livestock markets or potential processing sites may delay infrastructure development or provoke community resistance to investment initiatives. (49)</t>
+  </si>
+  <si>
+    <t>Local elites may dominate cooperative structures or SACCOs, skewing access to insurance products and limiting equitable uptake across communities. (51)
 In many pastoralist communities, women have limited authority over livestock or household finances, reducing their ability to enroll in or benefit from insurance schemes. (6, 52)
-Disputes over grazing land and water access—especially during drought—can escalate, creating mistrust between groups and undermining collective models needed for insurance enrollment. (49, 50)
-Fragmented roles between local governments, traditional authorities, and NGOs create confusion and duplication, delaying the rollout of micro-insurance and reducing community confidence in such initiatives. (51)
-(Risk): </t>
-  </si>
-  <si>
-    <t>Regulatory Harmonization and Transparency:
-Advocate for clear, consistent regulations across Kenya and Uganda, reducing political interference and ensuring predictable licensing and trade policies for aloe vera investments.
-Land Tenure Clarification and Community Agreements: Establish formalized land tenure agreements with local authorities and elders to secure aloe farming areas, preventing disputes and ensuring long-term investor confidence.
-Women’s Economic Inclusion Initiatives: Develop financial programs tailored to women aloe harvesters, including cooperative models, microfinance access, and training to enhance their role in decision-making and market participation.
-Conflict-Sensitive Business Strategies: Encourage businesses to integrate community peace committees and local governance structures into operations, ensuring that trade benefits multiple communities and reduces tensions.
-Trade Infrastructure Development: Support investment in cross-border infrastructure, including roads and storage facilities, to improve market access, lower transaction costs, and enhance supply chain resilience.</t>
-  </si>
-  <si>
-    <t>Establish inclusive, gender-sensitive governance models: Ensure women and marginalized vendors are represented in cooperative boards and decision-making bodies to promote equitable access and social buy-in.
-Formalize feedstock access agreements through local bylaws or MOUs: Clarifies waste ownership, reduces disputes, and ensures consistent supply by involving vendors, waste collectors, and local authorities.
-Engage cross-border coordination platforms early: Align Kenya and Uganda local authorities, market committees, and trade regulators to resolve border-specific implementation or legal obstacles.
-Use phased implementation with community co-design: Start with pilot units in lower-risk areas and allow communities to shape siting and access rules, building trust and demonstrating value.
-Leverage local peace committees and traditional leaders: Incorporate customary conflict resolution actors into project planning to anticipate and defuse tensions around land, resources, or leadership.</t>
-  </si>
-  <si>
-    <t>Strengthen cooperative-led aggregation: Support cooperatives and women’s groups to manage hides collection and sales, reducing elite capture and ensuring more inclusive participation in the value chain.
-Promote gender-inclusive training and financing: Provide targeted training and concessional finance for women in preservation and sorting, addressing marginalization and enabling entrepreneurship in the hides sector.
-Formalize and link market actors: Facilitate public-private dialogue platforms to harmonize trade rules, quality standards, and cross-border collaboration between West Pokot and Karamoja authorities.
-Invest in peacebuilding infrastructure: Support cross-border peace committees and mediation efforts with logistics, training, and secure spaces at livestock markets to proactively manage tensions and trade disputes.
-Secure land tenure and zoning clarity: Collaborate with local governments to clarify land rights and zoning regulations for hides processing infrastructure to prevent disputes and enable long-term investment.</t>
-  </si>
-  <si>
-    <t>Mitigate market risk through bundling and subsidies: Bundle insurance with inputs (e.g., seeds, vet care) and apply targeted subsidies to lower costs and increase uptake, while using SACCOs and cooperatives as trusted distribution channels.
-Enhance security resilience via mobile platforms: Promote digital platforms for enrollment and payouts to reduce physical exposure in insecure areas, while engaging local leaders to ensure safe access to services.
-Address elite capture through inclusive governance: Establish transparent community selection and oversight mechanisms within cooperatives and SACCOs to ensure fair access and build local trust in insurance products.
-Empower women through targeted design and training: Create gender-sensitive products, ensure women's participation in outreach and trainings, and partner with women's groups to improve access and decision-making power.</t>
+Disputes over grazing land and water access, especially during droughtn can escalate, creating mistrust between groups and undermining collective models needed for insurance enrollment. (49, 50)
+Fragmented roles between local governments, traditional authorities, and NGOs create confusion and duplication, delaying the rollout of micro-insurance and reducing community confidence in such initiatives. (51)</t>
+  </si>
+  <si>
+    <t>Advocate for clear, consistent regulations across Kenya and Uganda, reducing political interference and ensuring predictable licensing and trade policies for aloe vera investments.
+Establish formalized land tenure agreements with local authorities and elders to secure aloe farming areas, preventing disputes and ensuring long-term investor confidence.
+Develop financial programs tailored to women aloe harvesters, including cooperative models, microfinance access, and training to enhance their role in decision-making and market participation.
+Encourage businesses to integrate community peace committees and local governance structures into operations, ensuring that trade benefits multiple communities and reduces tensions.
+Support investment in cross-border infrastructure, including roads and storage facilities, to improve market access, lower transaction costs, and enhance supply chain resilience.</t>
+  </si>
+  <si>
+    <t>Ensure women and marginalized vendors are represented in cooperative boards and decision-making bodies to promote equitable access and social buy-in.
+Formalize feedstock access agreements through local bylaws or MOUs. Clarify waste ownership, reduce disputes, and ensure consistent supply by involving vendors, waste collectors, and local authorities.
+Align Kenya and Uganda local authorities, market committees, and trade regulators to resolve border-specific implementation or legal obstacles.
+Start with pilot units in larger markets, lower-risk areas and allow communities to shape access rules, building trust and demonstrating value.
+Incorporate customary conflict resolution actors into project planning to anticipate and defuse tensions around land, resources, or leadership.</t>
+  </si>
+  <si>
+    <t>Support cooperatives and women’s groups to manage hides collection and sales, reducing elite capture and ensuring more inclusive participation in the value chain.
+Provide targeted training and concessional finance for women in preservation and sorting, addressing marginalization and enabling entrepreneurship in the hides sector.
+Facilitate public-private dialogue platforms to harmonize trade rules, quality standards, and cross-border collaboration between West Pokot and Karamoja authorities.
+Support cross-border peace committees and mediation efforts with logistics, training, and secure spaces at livestock markets to proactively manage tensions and trade disputes.
+Collaborate with local governments to clarify land rights and zoning regulations for hides processing infrastructure to prevent disputes and enable long-term investment.</t>
+  </si>
+  <si>
+    <t>Bundle insurance with inputs (e.g., seeds, vet care) and apply targeted subsidies to lower costs and increase uptake, while using SACCOs and cooperatives as trusted distribution channels.
+Promote digital platforms for enrollment and payouts to reduce physical exposure in insecure areas, while engaging local leaders to ensure safe access to services.
+Establish transparent community selection and oversight mechanisms within cooperatives and SACCOs to ensure fair access and build local trust in insurance products.
+Create gender-sensitive products, ensure women's participation in outreach and trainings, and partner with women's groups to improve access and decision-making power.</t>
   </si>
   <si>
     <t xml:space="preserve">Private sector: Baringo Aloe Bio-Enterprise, Zonken Biotech, Somali traders (24, 29, 46)
@@ -1258,10 +1239,12 @@
 46) Nation Media Group. (2020, October 20). Baringo eyes aloe vera in bid to beautify life and grow tidy cash. Nation. Retrieved from: https://nation.africa/kenya/business/baringo-eyes-aloe-vera-in-bid-to-beautify-life-and-grow-tidy-cash-2728980
 47) Intergovernmental Authority on Development (IGAD). (2019). Mapping of Actors in the Karamoja Cluster.
 48) Bank of Uganda. (n.d.). Agricultural Credit Facility (ACF). Kampala: Bank of Uganda.
-49) Agricultural Finance Corporation. (n.d.). Official Website – Loan Products. Nairobi: Government of Kenya. Retrieved from: https://agrifinance.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17) HomeBiogas Ventures Limited. Scaling up access to clean cooking through biogas solutions in Kenya. NEFCO, 2023. Available at: https://www.nefco.int/news/new-portfolio-company-in-kenya-scaling-up-access-to-clean-cooking-through-biogas-solutions
+49) Agricultural Finance Corporation. (n.d.). Official Website – Loan Products. Nairobi: Government of Kenya. Retrieved from: https://agrifinance.org
+50) West Pokot Crops Statistics, 2019-2023, shared by the Chamber of Commerce in West Pokot.
+51) Deutsche Welle (2013). Women take over Kenya's farming sector.  https://www.dw.com/en/women-take-over-kenyas-farming-sector/a-16716322</t>
+  </si>
+  <si>
+    <t>17) HomeBiogas Ventures Limited. Scaling up access to clean cooking through biogas solutions in Kenya. NEFCO, 2023. Available at: https://www.nefco.int/news/new-portfolio-company-in-kenya-scaling-up-access-to-clean-cooking-through-biogas-solutions
 18) Takamoto Biogas. Kenya: Providing reliable and affordable clean energy to small-scale dairy farmers. INFORSE Local Solutions. Available at: https://localsolutions.inforse.org/pages/Case_example2.1.php?ID=1738
 19) Njenga, M., &amp; Mendum, R. Africa Biogas Partnership Program: A Review of Clean Cooking Implementation through Market Development in East Africa. ResearchGate, 2018. Available at: https://www.researchgate.net/publication/325901790_Africa_Biogas_Partnership_Program_A_Review_of_Clean_Cooking_Implementation_through_Market_Development_in_East_Africa
 20) C40 Cities. Organic Waste Diversion through a Biogas Plant at Ikosi Fruit Market – Request for Proposals. C40 Cities Finance Facility, 2024. Available at: https://www.c40.org/wp-content/uploads/2024/07/20240726-RFP-Organic-waste-diversion-through-a-biogas-plant-at-Ikosi-Fruit-Market.pdf
@@ -1287,7 +1270,10 @@
 41) Gray, S., Sundal, M., Wiebusch, B., Little, M. A., Leslie, P. W., &amp; Pike, I. L. (2003). “Cattle Raiding, Cultural Survival, and Adaptability of East African Pastoralists”. Current Anthropology, 44(S5), S3–S30. Retrieved from: https://www.journals.uchicago.edu/doi/full/10.1086/377669
 42) Stites, E. (2022). Conflict in Karamoja: A Synthesis of Historical and Current Perspectives, 1920–2022. Karamoja Resilience Support Unit (KRSU), Feinstein International Center, Tufts University.
 43) USAID. (2023). Applied Political Economy Analysis for the Karamoja Cluster. Washington, DC: USAID.
-44) Interview with cross-border trade associations. </t>
+44) Interview with cross-border trade associations. 
+45) US Agency for International Aid (2019). Off-Grid Solar Market Assessment - Kenya. Power Africa Off-grid Project.
+46) National Planning Authority. National Development Plan III (NDPIII) 2020/21 – 2024/25
+47) Mokveld, K. and von Eije (RVO.nl), S. (2019). Final Energy report Uganda.  https://www.rvo.nl/sites/default/files/2019/02/Final-Energy-report-Uganda.pdf</t>
   </si>
   <si>
     <t>23) Interview with public district officers in Moroto and West Pokot
@@ -1352,7 +1338,8 @@
 49) Gray, S., Sundal, M., Wiebusch, B., Little, M. A., Leslie, P. W., &amp; Pike, I. L. (2003). “Cattle Raiding, Cultural Survival, and Adaptability of East African Pastoralists”. Current Anthropology, 44(S5), S3–S30. Retrieved from: https://www.journals.uchicago.edu/doi/full/10.1086/377669
 50) Stites, E. (2022). Conflict in Karamoja: A Synthesis of Historical and Current Perspectives, 1920–2022. Karamoja Resilience Support Unit (KRSU), Feinstein International Center, Tufts University.
 51) USAID. (2023). Applied Political Economy Analysis for the Karamoja Cluster. Washington, DC: USAID.
-52) Interview with cross-border trade associations. (2024). Primary data collected by author.</t>
+52) Interview with cross-border trade associations. (2024). Primary data collected by author.
+53) Kenya Insurance Regulatory Authority (2019) Insurance Industry Annual Report 2018.</t>
   </si>
   <si>
     <t>image</t>
@@ -1361,10 +1348,10 @@
     <t>image3.png</t>
   </si>
   <si>
+    <t>image12.png</t>
+  </si>
+  <si>
     <t>image8.png</t>
-  </si>
-  <si>
-    <t>image12.png</t>
   </si>
   <si>
     <t>image10.png</t>
@@ -1751,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BK9" sqref="BK9"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BO9" sqref="BO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1948,7 +1935,7 @@
         <v>62</v>
       </c>
       <c r="BL1" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.2">
@@ -2051,89 +2038,86 @@
       <c r="AJ2" t="s">
         <v>156</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>159</v>
       </c>
-      <c r="AL2" t="s">
-        <v>161</v>
-      </c>
       <c r="AM2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AN2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AP2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AQ2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AR2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AS2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AT2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AU2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AV2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AW2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AX2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AY2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AZ2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BA2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BB2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BC2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BD2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BE2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="BF2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BG2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="BH2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BI2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BJ2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BK2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BL2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.2">
@@ -2233,92 +2217,86 @@
       <c r="AI3" t="s">
         <v>153</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>157</v>
-      </c>
       <c r="AL3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AM3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AN3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AO3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AP3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AQ3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AR3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS3" t="s">
         <v>185</v>
       </c>
-      <c r="AS3" t="s">
-        <v>187</v>
-      </c>
       <c r="AT3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AU3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AV3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AW3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AX3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AY3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AZ3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BA3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BB3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BC3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="BD3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BE3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="BF3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BG3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BH3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BI3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="BJ3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="BK3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BL3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.2">
@@ -2419,91 +2397,91 @@
         <v>154</v>
       </c>
       <c r="AJ4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK4" t="s">
         <v>158</v>
       </c>
-      <c r="AK4" t="s">
-        <v>160</v>
-      </c>
       <c r="AL4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AM4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AO4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AP4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AQ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR4" t="s">
         <v>183</v>
       </c>
-      <c r="AR4" t="s">
-        <v>185</v>
-      </c>
       <c r="AS4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AT4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AU4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AV4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AW4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AX4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AY4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AZ4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BA4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="BB4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BC4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BD4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BE4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BF4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BG4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BH4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BI4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BJ4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BK4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BL4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.2">
@@ -2603,92 +2581,86 @@
       <c r="AI5" t="s">
         <v>155</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>157</v>
-      </c>
       <c r="AL5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AM5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AN5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AO5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AP5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AQ5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AR5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AS5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AT5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AU5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AV5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AW5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AX5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AY5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AZ5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BA5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BB5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BC5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BD5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="BE5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BF5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BG5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BH5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BI5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BJ5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BK5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BL5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/eioa_data.xlsx
+++ b/eioa_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romaingalgani/Desktop/Python for ABC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74495BEE-54DD-C64A-ADAD-488467AD3F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="262">
   <si>
     <t>eioa_title</t>
   </si>
@@ -220,7 +214,7 @@
     <t>Hides and skins aggregation and processing</t>
   </si>
   <si>
-    <t>Micro-insurances for farmers and livestock traders</t>
+    <t>Micro-insurance for farmers and livestock traders</t>
   </si>
   <si>
     <t>Kenya
@@ -381,19 +375,22 @@
     <t>The global aloe vera market was valued at approximately USD 785.92 million in 2023 and is projected to reach USD 1.33 billion by 2031, growing at a CAGR of 6.80%. Specific data for Karamoja and West Pokot is limited; however, considering these regions' potential in aloe vera cultivation, a conservative estimate for the local market size could range between USD 1 million to USD 5 million. (26, 28)</t>
   </si>
   <si>
-    <t>Major cross-border markets like Amudat, Moroto, Kacheliba, and Kapenguria host hundreds to thousands of vendors, many of whom are food sellers using firewood or charcoal. Even with a 10–20% uptake, demand from 50–200 vendors per market provides a strong baseline. Waste from vendors, abattoirs, and nearby schools offers ample feedstock, making biogas viable and scalable. (25)</t>
+    <t>Major cross-border markets like Amudat, Moroto, Kacheliba, and Kapenguria host dozens of vendors each, many of whom are food sellers using firewood or charcoal. Demand from 10–20 vendors per market provides a reasonable baseline. Waste from vendors, abattoirs, and nearby schools offers ample feedstock, making biogas viable and scalable. If pilots prove successful, the model could expand beyond vendors to serve public offices at livestock markets, cold storage infrastructure, and even local electricity generation—unlocking broader opportunities for clean energy access and circular waste management. (25)</t>
   </si>
   <si>
     <t>The borderland generates tens of thousands of hides and skins annually, yet most are discarded or sold raw due to poor handling. Slaughter data from Moroto and West Pokot confirm steady volumes. With improved collection and preservation, this latent supply presents a substantial untapped market. (25, 29, 30, 33)</t>
   </si>
   <si>
-    <t>Over 200,000 households in Karamoja and West Pokot depend on farming and livestock yet lack formal risk protection. In Kenya, only 7% of the population is insured, highlighting the gap. Frequent droughts, disease outbreaks, and crop failure amplify this need. Index-based or bundled micro-insurance tailored to local systems can unlock a large, untapped market across the borderland. (30, 34)</t>
+    <t>Over 80% of households in Karamoja and West Pokot depend on farming and livestock yet lack formal risk protection. In Kenya, only 7% of the population is insured, highlighting the gap. Frequent droughts, disease outbreaks, and crop failure amplify this need. Index-based or bundled micro-insurance tailored to local systems can unlock a large, untapped market across the borderland. (30, 34)</t>
+  </si>
+  <si>
+    <t>10% - 15%</t>
   </si>
   <si>
     <t>Aloe vera farming offers high returns due to its low maintenance and high demand. In Kenya, aloe vera gel fetches approximately KES 500-1000 per liter, and farmers can break even within 2-3 years. Investors in aloe vera farming in other contexts can expect a ROI exceeding 25%. ​(27, 28, 31)</t>
   </si>
   <si>
-    <t>Biogas systems deliver 15–25% ROI over 4–6 years by replacing costly charcoal and firewood, cutting daily cooking fuel expenses by up to 60%. Lease-to-own or user-fee models ensure revenue recovery, while carbon credit eligibility can further boost returns. Case studies across East Africa confirm profitability in shared-use models. (25)</t>
+    <t>Biogas systems deliver 10–15% ROI over 4–6 years by replacing costly charcoal and firewood, cutting daily cooking fuel expenses by up to 60%. Lease-to-own or user-fee models ensure revenue recovery, while carbon credit eligibility can further boost returns. Case studies across East Africa confirm profitability in shared-use models. (25)</t>
   </si>
   <si>
     <t>With low-cost inputs and minimal infrastructure, preserved hides can earn 3–5 times the value of raw skins. ROI of 20–30% is achievable within a few years through basic value addition (drying, salting, grading) and off-taker linkages. Comparable figures are seen in COMESA and Kenya Leather Council programs. (24, 30)</t>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>Short Term (less than 5 years to generate return)</t>
+  </si>
+  <si>
+    <t>Medium Term (5-10 years to generate return)</t>
   </si>
   <si>
     <t>Investors can anticipate returns within 2 to 3 years after initial planting. Aloe vera plants typically reach commercial yield in the second year of planting, with the potential for multiple harvests annually. This rapid maturation allows for a relatively quick return on investment. (27, 28, 31)</t>
@@ -737,29 +737,25 @@
     <t xml:space="preserve">What: Expands sustainable aloe vera farming and processing, increasing rural incomes, enhancing biodiversity conservation, and creating market linkages for value-added aloe products.
 Who: Smallholder farmers, women, youth, cooperatives, and businesses in West Pokot and Karamoja, with broader benefits for local economies and regional trade.
 Risk: Climate variability, weak market structures, regulatory barriers, and unequal access to finance may limit production scalability and exclude marginalized groups from economic gains.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Provides clean cooking energy, improves waste management, and boosts livelihoods through inclusive biogas systems at cross-border markets.
 Who: Women vendors, youth, and informal market actors in Karamoja and West Pokot benefit directly from cleaner energy and economic inclusion.
 Risk: Exclusion of women, affordability gaps, or poor adoption could limit outcomes and unintentionally reinforce inequalities or resource tensions.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Unlocks value from livestock by-products, creating jobs, diversifying income, and reducing waste in underserved borderland markets.
 Who: Directly benefits pastoralists, traders, and women’s groups in Karamoja and West Pokot; indirectly supports tanneries and leather producers.
 Risk: Informal trade, weak market linkages, and lack of processing infrastructure may limit scale and sustainability.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t xml:space="preserve">What: Increased resilience of smallholder farmers and pastoralists through access to affordable, tailored micro-insurance products against climate and livelihood shocks.
 Who: Primarily low-income agro-pastoral households in Karamoja and West Pokot, with emphasis on women, youth, and marginalized groups.
 Risk: Low financial literacy and trust, weak distribution channels, and inadequate regulatory support may limit uptake and long-term viability.
-Contribution: 
-How much: </t>
+ </t>
   </si>
   <si>
     <t>C - Contribute to Solutions</t>
@@ -792,7 +788,7 @@
     <t>Policy White Space: The aloe vera sector addresses land restoration and income generation but remains a Policy White Space due to weak regulatory oversight, limited policy prioritization, and lack of structured support in Kenya and Uganda, despite its environmental and economic potential.</t>
   </si>
   <si>
-    <t>Dual White Space: Biogas units for vendors at cross-border markets address urgent clean cooking and waste management needs but face gaps in both policy and private sector engagement. There is no clear regulatory framework for biogas in informal markets, and proven business models remain scarce despite strong demand and feedstock availability.</t>
+    <t xml:space="preserve">Business White Space: Biogas units for vendors at cross-border markets address urgent clean cooking and waste management needs but face gaps in private sector engagement. Proven business models remain scarce despite strong demand and feedstock availability, due to limited awareness, high initial investment, and the absence of service delivery models tailored to informal market settings. </t>
   </si>
   <si>
     <t>Business White Space: Despite strong demand for quality hides and skins and their inclusion in development plans, the borderland lacks any scalable business model or sustained private investment. Poor preservation, fragmented collection, and weak linkages to tanneries have left this value chain underdeveloped, representing an untapped opportunity to generate income and jobs from livestock by-products through aggregation and processing.</t>
@@ -808,8 +804,7 @@
   <si>
     <t>Lack of proven delivery models in informal markets: There are few tested models for deploying, operating, and maintaining shared biogas units in dense, informal vendor settings like cross-border markets. This creates uncertainty around cost recovery, user retention, and system durability.
 Limited access to blended capital at micro-scale: While large-scale biodigesters attract funding, small communal systems (~$10K–$50K) fall between donor grants and commercial loans. Most vendors lack collateral or financial history, making it hard to secure lease-to-own financing or working capital.
-Absence of regulatory standards for small-scale biogas: There is no clear guidance on technical standards, safety, licensing, or quality control for biogas units used in informal public spaces. This regulatory vacuum limits public sector endorsement and increases investor risk.
-Weak integration into waste and energy policy frameworks: Biogas from market waste is not explicitly integrated into national waste management or clean cooking strategies in Uganda or Kenya, leading to a lack of incentives, enabling infrastructure, or coordinated municipal support.</t>
+Absence of regulatory standards for small-scale biogas: There is no clear guidance on technical standards, safety, licensing, or quality control for biogas units used in informal public spaces. This regulatory vacuum limits public sector endorsement and increases investor risk.</t>
   </si>
   <si>
     <t>Poor handling and preservation practices: Most hides and skins are damaged during slaughter or improperly preserved, leading to low-quality output and limited demand from formal tanneries and processors. (25, 29, 33)
@@ -1341,27 +1336,12 @@
 52) Interview with cross-border trade associations. (2024). Primary data collected by author.
 53) Kenya Insurance Regulatory Authority (2019) Insurance Industry Annual Report 2018.</t>
   </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>image3.png</t>
-  </si>
-  <si>
-    <t>image12.png</t>
-  </si>
-  <si>
-    <t>image8.png</t>
-  </si>
-  <si>
-    <t>image10.png</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,7 +1366,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1409,27 +1389,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1438,21 +1404,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1490,7 +1448,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1524,7 +1482,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1559,10 +1516,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1735,16 +1691,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BO9" sqref="BO9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1934,11 +1888,8 @@
       <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
-        <v>260</v>
-      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -1994,133 +1945,130 @@
         <v>103</v>
       </c>
       <c r="V2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AB2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AD2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AE2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AG2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AH2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AI2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AJ2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AL2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AM2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AN2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AO2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AP2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AQ2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AR2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AS2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AT2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AU2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AV2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AW2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AX2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AY2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AZ2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="BA2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="BB2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BC2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="BD2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BE2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="BF2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="BG2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BH2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BI2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BJ2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BK2" t="s">
-        <v>256</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2173,133 +2121,130 @@
         <v>106</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Y3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AA3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AB3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AD3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AE3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AH3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AI3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AL3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AM3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AN3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AO3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AP3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AQ3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AR3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AS3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AT3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AU3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AV3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AW3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AX3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AY3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AZ3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BA3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="BB3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BC3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="BD3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="BE3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="BF3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="BG3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BH3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="BI3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BJ3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BK3" t="s">
-        <v>257</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2355,136 +2300,133 @@
         <v>103</v>
       </c>
       <c r="V4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AB4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AD4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AE4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AG4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AH4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AI4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AJ4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AL4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AM4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AN4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AO4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AP4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AQ4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AR4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AS4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AT4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AU4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AV4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AW4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AX4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AY4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AZ4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="BA4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BB4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BC4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BD4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="BE4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="BF4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="BG4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BH4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BI4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BJ4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BK4" t="s">
-        <v>258</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2540,127 +2482,124 @@
         <v>103</v>
       </c>
       <c r="V5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AB5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AD5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AE5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AG5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AH5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AI5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AM5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AO5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AP5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AQ5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AR5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AS5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AT5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AU5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AV5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AW5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AX5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AY5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AZ5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="BA5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="BB5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BC5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BD5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="BE5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="BF5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BG5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BH5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="BI5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BJ5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="BK5" t="s">
-        <v>259</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/eioa_data.xlsx
+++ b/eioa_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romaingalgani/Desktop/Python for ABC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36AF119-C0D5-D24F-BA09-CA7E5388F3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="26080" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="267">
   <si>
     <t>eioa_title</t>
   </si>
@@ -1336,12 +1342,27 @@
 52) Interview with cross-border trade associations. (2024). Primary data collected by author.
 53) Kenya Insurance Regulatory Authority (2019) Insurance Industry Annual Report 2018.</t>
   </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>image3.png</t>
+  </si>
+  <si>
+    <t>image12.png</t>
+  </si>
+  <si>
+    <t>image8.png</t>
+  </si>
+  <si>
+    <t>image10.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,7 +1387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1389,13 +1410,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1404,13 +1439,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1448,7 +1491,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1482,6 +1525,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1516,9 +1560,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1691,14 +1736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" zoomScale="224" workbookViewId="0">
+      <selection activeCell="BL7" sqref="BL7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,8 +1935,11 @@
       <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="BL1" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2067,8 +2117,11 @@
       <c r="BK2" t="s">
         <v>258</v>
       </c>
+      <c r="BL2" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2243,8 +2296,11 @@
       <c r="BK3" t="s">
         <v>259</v>
       </c>
+      <c r="BL3" t="s">
+        <v>264</v>
+      </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -2425,8 +2481,11 @@
       <c r="BK4" t="s">
         <v>260</v>
       </c>
+      <c r="BL4" t="s">
+        <v>265</v>
+      </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2600,6 +2659,9 @@
       </c>
       <c r="BK5" t="s">
         <v>261</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
